--- a/input_panoramiR/Sample Manifest Form.xlsx
+++ b/input_panoramiR/Sample Manifest Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plateau/Documents/GitHub/PanoramiR/input_panoramiR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuangao/Documents/GitHub/PanoramiR/input_panoramiR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62732FC9-23B9-DC46-B69A-9FEBF6F65178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC07C2-A868-6B4F-8F31-4B4022BEF57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{77C2CF60-DD36-4634-A482-8FDAC0A4C20B}"/>
+    <workbookView xWindow="35920" yWindow="4880" windowWidth="23260" windowHeight="12580" xr2:uid="{77C2CF60-DD36-4634-A482-8FDAC0A4C20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Manifest" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>Additional Comments</t>
   </si>
@@ -230,40 +230,40 @@
     <t>Cancer, phase IV</t>
   </si>
   <si>
-    <t>2007 001</t>
-  </si>
-  <si>
-    <t>2007 002</t>
-  </si>
-  <si>
-    <t>2007 003</t>
-  </si>
-  <si>
-    <t>2007 004</t>
-  </si>
-  <si>
-    <t>2007 005</t>
-  </si>
-  <si>
-    <t>2007 006</t>
-  </si>
-  <si>
-    <t>2007 007</t>
-  </si>
-  <si>
-    <t>2007 008</t>
-  </si>
-  <si>
-    <t>2007 009</t>
-  </si>
-  <si>
-    <t>2007 010</t>
-  </si>
-  <si>
-    <t>2007 011</t>
-  </si>
-  <si>
-    <t>2007 012</t>
+    <t>sample_001</t>
+  </si>
+  <si>
+    <t>sample_002</t>
+  </si>
+  <si>
+    <t>sample_003</t>
+  </si>
+  <si>
+    <t>sample_004</t>
+  </si>
+  <si>
+    <t>sample_005</t>
+  </si>
+  <si>
+    <t>sample_006</t>
+  </si>
+  <si>
+    <t>sample_007</t>
+  </si>
+  <si>
+    <t>sample_008</t>
+  </si>
+  <si>
+    <t>sample_009</t>
+  </si>
+  <si>
+    <t>sample_010</t>
+  </si>
+  <si>
+    <t>sample_011</t>
+  </si>
+  <si>
+    <t>sample_012</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Information Form"/>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297A9FEF-8ABB-4CDE-83EA-DC6E497D8CE8}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1259,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -1301,7 +1301,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -1450,17 +1450,9 @@
       <c r="A47" s="2">
         <v>13</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="F47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
